--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1785181.151589343</v>
+        <v>1786941.883615727</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445534.67060185</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>417425.631344897</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10206795.53013511</v>
+        <v>10206585.39045526</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
-        <v>225.4031397636152</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>122.6622323399418</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>21.02627191808436</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>116.3879392317513</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17.28688718947271</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>68.36004337105383</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>212.5689651179052</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y5" t="n">
-        <v>219.4450108596164</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>109.317049263441</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>120.5084574863874</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>2.214688090590434</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>136.4933599139273</v>
+        <v>270.7196665139531</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775161047</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>142.694654802106</v>
       </c>
       <c r="T10" t="n">
-        <v>42.61059056948725</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8053789271548</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444159</v>
+        <v>280.6055821380912</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.74901076264513</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0311623452478</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9058642207981</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4021710092738</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.82823269715951</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0489563585645</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3090395918921</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7478724655842</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>103.8784673763411</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.02391377408317</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.41639999081865</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0422364341347</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4093609706218</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1845243123506</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>115.7077656527111</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>6.43453821042729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>14.7387432721756</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>20.92847288552893</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>60.11729550773704</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>146.185049953102</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.92847288552921</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>64.91921363453635</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>112.7304175246786</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410136</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>160.1597912951069</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>677.2692571593337</v>
       </c>
       <c r="C2" t="n">
-        <v>788.477863438847</v>
+        <v>677.2692571593337</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716689</v>
+        <v>677.2692571593337</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716689</v>
+        <v>677.2692571593337</v>
       </c>
       <c r="F2" t="n">
-        <v>515.1547061224654</v>
+        <v>670.3237564101303</v>
       </c>
       <c r="G2" t="n">
-        <v>248.7770495552874</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
@@ -4363,19 +4363,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>677.2692571593337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>677.2692571593337</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750.7407242111801</v>
+        <v>671.4952208241848</v>
       </c>
       <c r="C3" t="n">
-        <v>576.2876949300531</v>
+        <v>497.0421915430578</v>
       </c>
       <c r="D3" t="n">
-        <v>427.3532852688019</v>
+        <v>348.1077818818065</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1158302633464</v>
+        <v>188.870326876351</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>42.33576890323602</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>42.33576890323602</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4409,7 +4409,7 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
         <v>192.1295835699346</v>
@@ -4439,22 +4439,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="W3" t="n">
-        <v>918.9560612312482</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="X3" t="n">
-        <v>918.9560612312482</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="Y3" t="n">
-        <v>918.9560612312482</v>
+        <v>839.7105578442528</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.9529738206666</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C4" t="n">
-        <v>466.0167908927597</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D4" t="n">
-        <v>315.900151480424</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1037.394017794436</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1037.394017794436</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1037.394017794436</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1037.394017794436</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>1037.394017794436</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.394017794436</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="X4" t="n">
-        <v>1037.394017794436</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.6014386509063</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>833.1938928750989</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="C5" t="n">
-        <v>833.1938928750989</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030605</v>
@@ -4609,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y5" t="n">
-        <v>833.1938928750989</v>
+        <v>522.1002068716689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>131.5183722823842</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
         <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>478.4519222278687</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>801.3675279810725</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>547.1301712528709</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>339.2786710473381</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>131.5183722823842</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434482</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434482</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
         <v>36.32155393434482</v>
@@ -4725,22 +4725,22 @@
         <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>933.12980537331</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>666.752148806132</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7625979081146</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.9700187645845</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.627796442749</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="C8" t="n">
-        <v>1714.627796442749</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="D8" t="n">
-        <v>1356.362097835999</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="E8" t="n">
-        <v>970.5738452377543</v>
+        <v>1106.119693124105</v>
       </c>
       <c r="F8" t="n">
-        <v>559.5879404481468</v>
+        <v>695.133788334497</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270081</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685558</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045915</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550194</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661159</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342779</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762132</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762132</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762132</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.767128418561</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.767128418561</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2104.767128418561</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1714.627796442749</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010736</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199466</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586954</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532399</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801249</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763131</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685558</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637185</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572702</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907511</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865052</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337621</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325009</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789034</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342779</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342779</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251694</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685343</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751573</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351983</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791628</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586096</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821142</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.674010863609</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7378279357022</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6211885233664</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7080949409733</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380129</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676564</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412618</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412618</v>
+        <v>1492.310105122875</v>
       </c>
       <c r="T10" t="n">
-        <v>1490.115054837379</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="U10" t="n">
-        <v>1490.115054837379</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="V10" t="n">
-        <v>1490.115054837379</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W10" t="n">
-        <v>1490.115054837379</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.115054837379</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.322475693849</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2315.152497609972</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1946.18998066956</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1587.92428206281</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1202.136029464565</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168634</v>
+        <v>791.1501246749579</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362708</v>
+        <v>377.2052974758116</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.76531551814372</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.2117326369189</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>377.8919112275235</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.2947399039288</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1477.73516030261</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2205.327574907682</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2949.307003834347</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3638.49042054953</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4192.191521035113</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4559.825241454984</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4688.265775907186</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4603.670815540878</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4402.629237414365</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4149.18897052467</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3818.1260831811</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3465.357427910985</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3091.891669649905</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2701.752337674094</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3595186577121</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9064893765851</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>619.9720797153338</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7346247098783</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2000667367633</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4402980405271</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.76531551814372</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.76531551814372</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.3098463766219</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.0600934411124</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.151029113137</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1374.077246645177</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.394112763708</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.815424716773</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.604273613852</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.576119608211</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.424011376468</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.186654648267</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.335154442734</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.57485567778</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>512.8422931857431</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400721</v>
+        <v>343.9061102578362</v>
       </c>
       <c r="D13" t="n">
-        <v>408.9258559154851</v>
+        <v>193.7894708455005</v>
       </c>
       <c r="E13" t="n">
-        <v>261.012762333092</v>
+        <v>93.76531551814372</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>93.76531551814372</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.76531551814372</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.76531551814372</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.76531551814372</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>173.9372723687384</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.5212620398422</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>825.7851432062812</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1247.652809956955</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1664.924022934749</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2034.325229908151</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2326.891096275496</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.013457116464</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2378.926184398466</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2196.055238505401</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1976.44982338356</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1687.374546300378</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1432.690058094491</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1143.27288805753</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>915.2833371595129</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>694.4907580159828</v>
       </c>
     </row>
     <row r="14">
@@ -5260,25 +5260,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,7 +5287,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,16 +5296,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2190.563011941682</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.48778528588</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1646.803297079993</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1357.386127043032</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1129.396576145015</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014847</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.843151638089</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101821</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978464</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>422.7903292978464</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>275.900381799936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>108.7042825148159</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>108.7042825148159</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683287</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,28 +5767,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,55 +5886,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474266</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>283.8927175774227</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>116.6966182923026</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>116.6966182923026</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5952,10 +5952,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6004,34 +6004,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6457,13 +6457,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,19 +6712,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>390.823249958218</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372933</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>853.594109445026</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326902</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>555.5643764502971</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>408.6744289523867</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>241.4783296672667</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487568</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.378057281681</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346703</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203173</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,28 +7171,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1394.184733704552</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775173</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>45.78351343583176</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544039</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094956</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9861830434852</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.569396338523177</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.73700564187121</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>47.410048872486</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5250535492193</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.3028503125647</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.29336059121931</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.9077073655013</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>210.970912116861</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>66.52709304638992</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>125.5054897610403</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>58.61468062667809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>226.405702828854</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>71.22040037418631</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.44677382459246</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>75.37549921168751</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>105.8542358274162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823051</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>65.54986409393027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>901877.4865178538</v>
+        <v>901886.0900460152</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877441.6981069538</v>
+        <v>877196.3718768253</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069536</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
@@ -26322,40 +26322,40 @@
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907542</v>
+        <v>544669.9127392783</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="I2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580778</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606948</v>
+        <v>506886.0326267336</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>585.0966390494327</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101743</v>
+        <v>95382.64613756977</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132447.3436061356</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>157.2049554777247</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555027</v>
+        <v>139134.5471223413</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10556.75453486818</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26472,13 +26472,13 @@
         <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567889</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101072.4410767592</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-439265.2551119301</v>
+        <v>-439265.2551119303</v>
       </c>
       <c r="C6" t="n">
         <v>240822.7254792629</v>
       </c>
       <c r="D6" t="n">
-        <v>-68641.3333308679</v>
+        <v>-68997.48870973787</v>
       </c>
       <c r="E6" t="n">
-        <v>-75112.27463498588</v>
+        <v>-73880.62395063494</v>
       </c>
       <c r="F6" t="n">
-        <v>432796.9574257089</v>
+        <v>432524.5021155803</v>
       </c>
       <c r="G6" t="n">
-        <v>432796.9574257088</v>
+        <v>433109.5987546297</v>
       </c>
       <c r="H6" t="n">
-        <v>432796.9574257087</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="I6" t="n">
-        <v>432796.9574257087</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="J6" t="n">
-        <v>363797.8030065951</v>
+        <v>364110.4443355156</v>
       </c>
       <c r="K6" t="n">
-        <v>432796.9574257085</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="L6" t="n">
-        <v>337526.7196346917</v>
+        <v>337726.95261706</v>
       </c>
       <c r="M6" t="n">
-        <v>300078.9817302394</v>
+        <v>300662.2551484942</v>
       </c>
       <c r="N6" t="n">
-        <v>432796.9574257092</v>
+        <v>432952.3937991521</v>
       </c>
       <c r="O6" t="n">
-        <v>432796.9574257088</v>
+        <v>433109.5987546301</v>
       </c>
       <c r="P6" t="n">
-        <v>432796.9574257086</v>
+        <v>433109.5987546302</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562782</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.46794876009</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26792,25 +26792,25 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856947</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.066443976797</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933036</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788922</v>
+        <v>433.4030566425505</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.507551581584039</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,13 +27017,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841886</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139544</v>
+        <v>531.4816118767578</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0.6418441228518077</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139541</v>
+        <v>531.4816118767578</v>
       </c>
       <c r="N4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0.6418441228518077</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27263,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841886</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139544</v>
+        <v>531.4816118767578</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.6418441228518077</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>149.1202946442037</v>
       </c>
       <c r="H2" t="n">
-        <v>88.79049286565282</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>247.0688683385272</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27475,7 +27475,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>78.45304835312538</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27511,7 +27511,7 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>135.3070439291683</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>110.2177156941912</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>218.1629549655372</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>142.1140765027778</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.7929277964372</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>63.3914497248747</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27833,13 +27833,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>131.6291858374406</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.4949672984467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>275.0557998743222</v>
+        <v>140.8280362590009</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164534611</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>51.9678055596315</v>
       </c>
       <c r="T10" t="n">
-        <v>178.1408979408515</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763185</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359933</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752507</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307887</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983015</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140463</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571276</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617161</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152208</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519079</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133927</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415874</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462347</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307407</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658774</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942744</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650324</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.497358587980256</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.29982363915281</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>211.936916963109</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.5814384565897</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.2846274857941</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.524415372695</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.2880661616888</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>980.9074362497878</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.243076790559</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.5270366497964</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.6528822177532</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.3234514022151</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.2710588236002</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.06468721888358</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4397886870384204</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.941346153936797</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.40721153933696</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.8927083418972</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>474.9629006556625</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.6462339940401</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>447.1100112271093</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>764.9951122030619</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>699.821073739515</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.63421474527336</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.85568910292945</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935096153905788</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.465925809239506</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.92432219487489</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.15711433603897</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.3409547132331</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.495744018917</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.6159153118444</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.5450793519709</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.3539013357148</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.5474043823259</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.2425178738397</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.4876602627735</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.8769913863508</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.97436160283755</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5362284576597</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345050441403368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551096</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827497113</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>238.3094620181791</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087206</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155916</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091019</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343032</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234269</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127568</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884361</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772534</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396978</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318876</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899239</v>
+        <v>418.422987301597</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603484</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873304</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.461027392703102</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.5355339299034</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.1947764408135</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>631.7580004027077</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>734.9418329344161</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.4943726531969</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.1448653688723</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.2940408945269</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.3471923433037</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.737913588083</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.0550816752305</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.1214616813035</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.0918542141659</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>304.975977305091</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.6534001197286</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>557.2248292950705</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>80.98177459656029</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.2262521930342</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.2059405721606</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.1289563138114</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.4860737149434</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.1325322963656</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.5210771387332</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.3256170110792</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
